--- a/ProjectManagement/Modules.xlsx
+++ b/ProjectManagement/Modules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\Project Management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7FB8FE-DB62-4EF4-8A7F-8CB7554D00BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A433E703-005F-4CCA-9088-2C9083BC89AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>Adds more cargo space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second Fuel Tank </t>
+  </si>
+  <si>
+    <t>Adds more fuel tank size</t>
   </si>
 </sst>
 </file>
@@ -118,8 +124,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:D5" totalsRowShown="0">
-  <autoFilter ref="B3:D5" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:D6" totalsRowShown="0">
+  <autoFilter ref="B3:D6" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="Name"/>
     <tableColumn id="2" xr3:uid="{4770588D-5EDD-4D5C-B0F0-3F6FEB342485}" name="Slot Type"/>
@@ -418,7 +424,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -426,15 +432,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F1A7B1-2AED-43D2-A412-380A2E4306DA}">
-  <dimension ref="B3:D5"/>
+  <dimension ref="B3:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.85546875" customWidth="1"/>
     <col min="4" max="4" width="77.85546875" customWidth="1"/>
   </cols>
@@ -470,6 +476,17 @@
       </c>
       <c r="D5" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectManagement/Modules.xlsx
+++ b/ProjectManagement/Modules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A433E703-005F-4CCA-9088-2C9083BC89AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC03591-58A9-4E33-82C2-9FA917633E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -50,15 +50,9 @@
     <t>Industrial</t>
   </si>
   <si>
-    <t>Asteroid Miner I</t>
-  </si>
-  <si>
     <t>Mines basic asteroids slowly</t>
   </si>
   <si>
-    <t>Cargo Expansion I</t>
-  </si>
-  <si>
     <t>Structural</t>
   </si>
   <si>
@@ -69,6 +63,21 @@
   </si>
   <si>
     <t>Adds more fuel tank size</t>
+  </si>
+  <si>
+    <t>Salvager MK1</t>
+  </si>
+  <si>
+    <t>Asteroid Miner MK1</t>
+  </si>
+  <si>
+    <t>Cargo Expansion MK1</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Converts salvage to knowledge</t>
   </si>
 </sst>
 </file>
@@ -124,8 +133,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:D6" totalsRowShown="0">
-  <autoFilter ref="B3:D6" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:D7" totalsRowShown="0">
+  <autoFilter ref="B3:D7" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="Name"/>
     <tableColumn id="2" xr3:uid="{4770588D-5EDD-4D5C-B0F0-3F6FEB342485}" name="Slot Type"/>
@@ -424,7 +433,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -432,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F1A7B1-2AED-43D2-A412-380A2E4306DA}">
-  <dimension ref="B3:D6"/>
+  <dimension ref="B3:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,35 +467,46 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectManagement/Modules.xlsx
+++ b/ProjectManagement/Modules.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC03591-58A9-4E33-82C2-9FA917633E5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1362A970-8254-4698-9809-7FA29B68DFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>Converts salvage to knowledge</t>
+  </si>
+  <si>
+    <t>Foreman MK1</t>
+  </si>
+  <si>
+    <t>Decreases activation time of asteroid miners within a radius</t>
   </si>
 </sst>
 </file>
@@ -133,8 +139,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:D7" totalsRowShown="0">
-  <autoFilter ref="B3:D7" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:D8" totalsRowShown="0">
+  <autoFilter ref="B3:D8" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="Name"/>
     <tableColumn id="2" xr3:uid="{4770588D-5EDD-4D5C-B0F0-3F6FEB342485}" name="Slot Type"/>
@@ -441,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F1A7B1-2AED-43D2-A412-380A2E4306DA}">
-  <dimension ref="B3:D7"/>
+  <dimension ref="B3:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,6 +515,17 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/ProjectManagement/Modules.xlsx
+++ b/ProjectManagement/Modules.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Digital Archive\Game Development\Active\SpaceUnknown\ProjectManagement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1362A970-8254-4698-9809-7FA29B68DFDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBF8698-FB78-48BD-B286-067ADEDFD58A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
+    <workbookView xWindow="19890" yWindow="0" windowWidth="37110" windowHeight="21000" xr2:uid="{BEDA9127-5E7F-4B15-9FE0-DDF043E0E148}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Items" sheetId="2" r:id="rId1"/>
+    <sheet name="Modules" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -84,13 +85,52 @@
   </si>
   <si>
     <t>Decreases activation time of asteroid miners within a radius</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>SL1</t>
+  </si>
+  <si>
+    <t>CE1</t>
+  </si>
+  <si>
+    <t>AM1</t>
+  </si>
+  <si>
+    <t>Item ID</t>
+  </si>
+  <si>
+    <t>Display Name</t>
+  </si>
+  <si>
+    <t>VN</t>
+  </si>
+  <si>
+    <t>Venigen</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>Pyrexium</t>
+  </si>
+  <si>
+    <t>Asteroid Miner I</t>
+  </si>
+  <si>
+    <t>STL</t>
+  </si>
+  <si>
+    <t>Slower Than Light fuel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,16 +138,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -115,12 +175,28 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,10 +215,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="B3:D8" totalsRowShown="0">
-  <autoFilter ref="B3:D8" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{223A75B1-C6FB-47A5-B7A8-F14BED3EEFFF}" name="Table2" displayName="Table2" ref="B2:C6" totalsRowShown="0">
+  <autoFilter ref="B2:C6" xr:uid="{223A75B1-C6FB-47A5-B7A8-F14BED3EEFFF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A57ED6D9-670E-43E5-9C8E-9F87CDB93B39}" name="Item ID"/>
+    <tableColumn id="2" xr3:uid="{C52EF92B-EFA1-42B7-9701-E3B35C408577}" name="Display Name"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}" name="Table1" displayName="Table1" ref="C3:E8" totalsRowShown="0">
+  <autoFilter ref="C3:E8" xr:uid="{6FEB2121-7A05-45CF-B060-A377F5C02C18}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="Name"/>
+    <tableColumn id="1" xr3:uid="{FFCC2355-E4EE-481E-98A0-1102DD5CA9A3}" name="ID"/>
     <tableColumn id="2" xr3:uid="{4770588D-5EDD-4D5C-B0F0-3F6FEB342485}" name="Slot Type"/>
     <tableColumn id="3" xr3:uid="{AD75260C-44B9-43EB-BFDA-A57C787F7698}" name="Description"/>
   </tableColumns>
@@ -446,83 +533,158 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F1A7B1-2AED-43D2-A412-380A2E4306DA}">
-  <dimension ref="B3:D8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C0CDF1-A183-4345-9368-92E9EE269DA3}">
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23.85546875" customWidth="1"/>
-    <col min="4" max="4" width="77.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07F1A7B1-2AED-43D2-A412-380A2E4306DA}">
+  <dimension ref="B3:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="77.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>15</v>
       </c>
     </row>
